--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2650.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2650.xlsx
@@ -354,7 +354,7 @@
         <v>1.427870727744266</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.424012932506545</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2650.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2650.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8483036807809425</v>
+        <v>2.060031414031982</v>
       </c>
       <c r="B1">
-        <v>1.427870727744266</v>
+        <v>2.34818696975708</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.373142719268799</v>
       </c>
       <c r="D1">
-        <v>1.424012932506545</v>
+        <v>2.840351819992065</v>
       </c>
       <c r="E1">
-        <v>0.8504442965284712</v>
+        <v>0.9352903962135315</v>
       </c>
     </row>
   </sheetData>
